--- a/data/trans_orig/P74B2S1_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1_2015-Provincia-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>34,92%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>42,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>88,39%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>15,86%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>91,29%</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,31%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,62%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>65,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,61%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>40,18%</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>77,43%</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>13,64%</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>77,27%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,33%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>70,84%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,57%</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>67,83%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>82,98%</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3563,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
@@ -3605,12 +3605,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,88%</t>
         </is>
       </c>
     </row>
